--- a/data/regime/Freedom House Territory Ratings.xlsx
+++ b/data/regime/Freedom House Territory Ratings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBEA531-D3BB-8A4E-BB1C-3AC9ABFC4DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D556B19-DADC-6C4E-8A70-78AEAB7372FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Status</t>
   </si>
@@ -603,7 +603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -645,11 +645,11 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -659,11 +659,11 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -673,11 +673,11 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -729,11 +729,11 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -743,11 +743,11 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -757,11 +757,11 @@
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -771,11 +771,11 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -785,11 +785,11 @@
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -813,11 +813,11 @@
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -841,11 +841,11 @@
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -855,11 +855,11 @@
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -953,11 +953,11 @@
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -967,11 +967,11 @@
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -999,6 +999,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3d854844-489d-4a5d-b4ab-ea994fd25330" xsi:nil="true"/>
@@ -1007,15 +1016,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1274,20 +1274,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ADC31E7-5C82-4043-8B48-AC554D6661BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D474E4C3-DD96-4660-AFB5-DB7FF1DAC9A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3d854844-489d-4a5d-b4ab-ea994fd25330"/>
     <ds:schemaRef ds:uri="aedc87c9-fa16-4ea4-92d3-41d4e2157c0b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ADC31E7-5C82-4043-8B48-AC554D6661BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
